--- a/Capstone Project/1 Combined/Model per Year MSRP.xlsx
+++ b/Capstone Project/1 Combined/Model per Year MSRP.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mszuc\Desktop\Capstone-Project-Data-Modeling-and-PowerBI\Capstone Project\1 Combined\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f95e7ca709dacb8/Documents/GitHub/Capstone-Project-Data-Modeling-and-PowerBI/Capstone Project/1 Combined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15318DED-0386-4E4A-8026-AB5A8A07A2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{15318DED-0386-4E4A-8026-AB5A8A07A2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4CA2D97-54E7-4AC4-8D44-4BA8516386E7}"/>
   <bookViews>
-    <workbookView xWindow="51975" yWindow="0" windowWidth="15150" windowHeight="9330" xr2:uid="{A4D9D9D0-4D7C-42D8-9AC4-884D62F656DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A4D9D9D0-4D7C-42D8-9AC4-884D62F656DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
-    <sheet name="2017" sheetId="3" r:id="rId2"/>
-    <sheet name="2018" sheetId="4" r:id="rId3"/>
-    <sheet name="2019" sheetId="5" r:id="rId4"/>
-    <sheet name="2020" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Corolla</t>
   </si>
@@ -172,21 +172,6 @@
   </si>
   <si>
     <t>M7Y5</t>
-  </si>
-  <si>
-    <t>2020 MSRP</t>
-  </si>
-  <si>
-    <t>2016 MSRP</t>
-  </si>
-  <si>
-    <t>2017 MSRP</t>
-  </si>
-  <si>
-    <t>2018 MSRP</t>
-  </si>
-  <si>
-    <t>2019 MSRP</t>
   </si>
 </sst>
 </file>
@@ -555,18 +540,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D16DF94-DF37-4B88-BDF2-98170125B18F}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -577,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -588,7 +576,7 @@
         <v>16950</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -599,7 +587,7 @@
         <v>23795</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -610,7 +598,7 @@
         <v>23215</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -621,7 +609,7 @@
         <v>21133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -632,7 +620,7 @@
         <v>25650</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -643,7 +631,7 @@
         <v>19650</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -668,14 +656,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -686,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -697,7 +688,7 @@
         <v>20890</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -708,7 +699,7 @@
         <v>24505</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -719,7 +710,7 @@
         <v>25995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -730,7 +721,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -741,7 +732,7 @@
         <v>28345</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -752,7 +743,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -776,14 +767,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -794,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -805,7 +799,7 @@
         <v>22680</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -816,7 +810,7 @@
         <v>25070</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -827,7 +821,7 @@
         <v>27055</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -838,7 +832,7 @@
         <v>30690</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -849,7 +843,7 @@
         <v>32225</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -860,7 +854,7 @@
         <v>21545</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -884,14 +878,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -902,7 +899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -913,7 +910,7 @@
         <v>23360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -924,7 +921,7 @@
         <v>25822</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -935,7 +932,7 @@
         <v>28137</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -946,7 +943,7 @@
         <v>31610</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -957,7 +954,7 @@
         <v>33514</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -968,7 +965,7 @@
         <v>22191</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -988,18 +985,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F8E67A-2C64-4DEE-9072-51FECDAA8019}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>24062</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>26596</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>28981</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>32559</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>34519</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>22857</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
